--- a/Data/Output1.xlsx
+++ b/Data/Output1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Ray\Ray PC Home\Raymond\Raymond Loh Wee Ping Resume\Race Academy\2021\Course Notes\RPA Projects\RPAC01_TrackingOfTenders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB080C4-BFA3-426D-869E-886A373D61B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C9AB2A-6129-4D26-9627-9B82ABEE171B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="45" windowWidth="14010" windowHeight="5585" xr2:uid="{43139E90-337A-4407-97D3-60DD581C3CD5}"/>
+    <workbookView xWindow="440" yWindow="45" windowWidth="14010" windowHeight="5585" xr2:uid="{89D7FC95-82D1-4A99-A179-9434FE4FB4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Description</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Procurement Category</t>
+  </si>
+  <si>
+    <t>Quotation</t>
   </si>
   <si>
     <t>Book Vouchers for Honours Day 2021</t>
@@ -60,6 +63,12 @@
   </si>
   <si>
     <t>Science Centre Board</t>
+  </si>
+  <si>
+    <t>Quotation - MOESCHETQ21002160</t>
+  </si>
+  <si>
+    <t>Quotation - SCB000ETQ21000015</t>
   </si>
 </sst>
 </file>
@@ -413,15 +422,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FCD505-D3B6-4608-8AED-6547916FA1C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E18E536-CCAA-4CD1-9CE7-C9D977297D3A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,33 +443,46 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Output1.xlsx
+++ b/Data/Output1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Ray\Ray PC Home\Raymond\Raymond Loh Wee Ping Resume\Race Academy\2021\Course Notes\RPA Projects\RPAC01_TrackingOfTenders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C9AB2A-6129-4D26-9627-9B82ABEE171B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E561CA-D116-4480-B5AF-036D092C7A08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="45" windowWidth="14010" windowHeight="5585" xr2:uid="{89D7FC95-82D1-4A99-A179-9434FE4FB4EA}"/>
+    <workbookView xWindow="2965" yWindow="3870" windowWidth="14010" windowHeight="5585" xr2:uid="{89D7FC95-82D1-4A99-A179-9434FE4FB4EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Description</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Procurement Category</t>
-  </si>
-  <si>
-    <t>Quotation</t>
   </si>
   <si>
     <t>Book Vouchers for Honours Day 2021</t>
@@ -63,12 +60,6 @@
   </si>
   <si>
     <t>Science Centre Board</t>
-  </si>
-  <si>
-    <t>Quotation - MOESCHETQ21002160</t>
-  </si>
-  <si>
-    <t>Quotation - SCB000ETQ21000015</t>
   </si>
 </sst>
 </file>
@@ -424,13 +415,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E18E536-CCAA-4CD1-9CE7-C9D977297D3A}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,46 +434,33 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
-      <c r="E5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Output1.xlsx
+++ b/Data/Output1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Ray\Ray PC Home\Raymond\Raymond Loh Wee Ping Resume\Race Academy\2021\Course Notes\RPA Projects\RPAC01_TrackingOfTenders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E561CA-D116-4480-B5AF-036D092C7A08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7D19F1-B360-4AFB-9BF4-AAFDA5D5A75E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2965" yWindow="3870" windowWidth="14010" windowHeight="5585" xr2:uid="{89D7FC95-82D1-4A99-A179-9434FE4FB4EA}"/>
+    <workbookView xWindow="2675" yWindow="4615" windowWidth="14010" windowHeight="5585" xr2:uid="{0B4D092D-F8E9-4514-B33E-C9B003A21BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E18E536-CCAA-4CD1-9CE7-C9D977297D3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE83638-B2AF-4A06-902A-36F42E2F0E0D}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D3"/>
   <sheetViews>

--- a/Data/Output1.xlsx
+++ b/Data/Output1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Ray\Ray PC Home\Raymond\Raymond Loh Wee Ping Resume\Race Academy\2021\Course Notes\RPA Projects\RPAC01_TrackingOfTenders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7D19F1-B360-4AFB-9BF4-AAFDA5D5A75E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10E5062-C62B-423F-8BDF-657D1E375C00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2675" yWindow="4615" windowWidth="14010" windowHeight="5585" xr2:uid="{0B4D092D-F8E9-4514-B33E-C9B003A21BB7}"/>
   </bookViews>

--- a/Data/Output1.xlsx
+++ b/Data/Output1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Ray\Ray PC Home\Raymond\Raymond Loh Wee Ping Resume\Race Academy\2021\Course Notes\RPA Projects\RPAC01_TrackingOfTenders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10E5062-C62B-423F-8BDF-657D1E375C00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFA33E2-56B5-4E91-9F14-1D781D2F36DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2675" yWindow="4615" windowWidth="14010" windowHeight="5585" xr2:uid="{0B4D092D-F8E9-4514-B33E-C9B003A21BB7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Description</t>
   </si>
@@ -60,6 +60,16 @@
   </si>
   <si>
     <t>Science Centre Board</t>
+  </si>
+  <si>
+    <t>INVITATION TO QUOTE FOR BOOK VOUCHERS</t>
+  </si>
+  <si>
+    <t>19 May 2021
+01:00PM</t>
+  </si>
+  <si>
+    <t>Ministry of Education</t>
   </si>
 </sst>
 </file>
@@ -415,7 +425,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE83638-B2AF-4A06-902A-36F42E2F0E0D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,13 +447,13 @@
     </row>
     <row r="2" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -451,15 +461,29 @@
     </row>
     <row r="3" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Data/Output1.xlsx
+++ b/Data/Output1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Ray\Ray PC Home\Raymond\Raymond Loh Wee Ping Resume\Race Academy\2021\Course Notes\RPA Projects\RPAC01_TrackingOfTenders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFA33E2-56B5-4E91-9F14-1D781D2F36DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ACE05E-743F-4E25-8B3D-A054602F06FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2675" yWindow="4615" windowWidth="14010" windowHeight="5585" xr2:uid="{0B4D092D-F8E9-4514-B33E-C9B003A21BB7}"/>
+    <workbookView xWindow="2675" yWindow="4615" windowWidth="14010" windowHeight="5585" xr2:uid="{7E431636-0F77-4C15-8CB0-B277ADDE7420}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,19 @@
     <t>Procurement Category</t>
   </si>
   <si>
+    <t>INVITATION TO QUOTE FOR BOOK VOUCHERS</t>
+  </si>
+  <si>
+    <t>19 May 2021
+01:00PM</t>
+  </si>
+  <si>
+    <t>Ministry of Education</t>
+  </si>
+  <si>
+    <t>Administration &amp; Training ⇒ Gifts &amp; Souvenirs</t>
+  </si>
+  <si>
     <t>Book Vouchers for Honours Day 2021</t>
   </si>
   <si>
@@ -49,9 +62,6 @@
     <t>Ministry of Education - Schools</t>
   </si>
   <si>
-    <t>Administration &amp; Training ⇒ Gifts &amp; Souvenirs</t>
-  </si>
-  <si>
     <t>PROCUREMENT BOOK VOUCHERS FOR SINGAPORE SCIENCE AND ENGINEERING FAIR 2021</t>
   </si>
   <si>
@@ -60,16 +70,6 @@
   </si>
   <si>
     <t>Science Centre Board</t>
-  </si>
-  <si>
-    <t>INVITATION TO QUOTE FOR BOOK VOUCHERS</t>
-  </si>
-  <si>
-    <t>19 May 2021
-01:00PM</t>
-  </si>
-  <si>
-    <t>Ministry of Education</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE83638-B2AF-4A06-902A-36F42E2F0E0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBB3919-6545-4F31-BC3A-96EF5A48FEAF}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -447,13 +447,13 @@
     </row>
     <row r="2" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -461,13 +461,13 @@
     </row>
     <row r="3" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -475,13 +475,13 @@
     </row>
     <row r="4" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>

--- a/Data/Output1.xlsx
+++ b/Data/Output1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Ray\Ray PC Home\Raymond\Raymond Loh Wee Ping Resume\Race Academy\2021\Course Notes\RPA Projects\RPAC01_TrackingOfTenders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05ACE05E-743F-4E25-8B3D-A054602F06FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6D84AA-7B7D-410F-987D-A5E153E79917}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2675" yWindow="4615" windowWidth="14010" windowHeight="5585" xr2:uid="{7E431636-0F77-4C15-8CB0-B277ADDE7420}"/>
   </bookViews>

--- a/Data/Output1.xlsx
+++ b/Data/Output1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Ray\Ray PC Home\Raymond\Raymond Loh Wee Ping Resume\Race Academy\2021\Course Notes\RPA Projects\RPAC01_TrackingOfTenders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6D84AA-7B7D-410F-987D-A5E153E79917}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF31DEBA-09CA-4F3D-9357-66CED9C2586E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2675" yWindow="4615" windowWidth="14010" windowHeight="5585" xr2:uid="{7E431636-0F77-4C15-8CB0-B277ADDE7420}"/>
   </bookViews>

--- a/Data/Output1.xlsx
+++ b/Data/Output1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Ray\Ray PC Home\Raymond\Raymond Loh Wee Ping Resume\Race Academy\2021\Course Notes\RPA Projects\RPAC01_TrackingOfTenders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF31DEBA-09CA-4F3D-9357-66CED9C2586E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913B262F-5476-4C79-94B7-6CF865E7FA22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2675" yWindow="4615" windowWidth="14010" windowHeight="5585" xr2:uid="{7E431636-0F77-4C15-8CB0-B277ADDE7420}"/>
+    <workbookView xWindow="2060" yWindow="2435" windowWidth="16540" windowHeight="7765" xr2:uid="{7E431636-0F77-4C15-8CB0-B277ADDE7420}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Description</t>
   </si>
@@ -50,26 +50,6 @@
   </si>
   <si>
     <t>Administration &amp; Training ⇒ Gifts &amp; Souvenirs</t>
-  </si>
-  <si>
-    <t>Book Vouchers for Honours Day 2021</t>
-  </si>
-  <si>
-    <t>05 May 2021
-01:00PM</t>
-  </si>
-  <si>
-    <t>Ministry of Education - Schools</t>
-  </si>
-  <si>
-    <t>PROCUREMENT BOOK VOUCHERS FOR SINGAPORE SCIENCE AND ENGINEERING FAIR 2021</t>
-  </si>
-  <si>
-    <t>06 May 2021
-01:00PM</t>
-  </si>
-  <si>
-    <t>Science Centre Board</t>
   </si>
 </sst>
 </file>
@@ -425,7 +405,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBB3919-6545-4F31-BC3A-96EF5A48FEAF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,34 +439,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Output1.xlsx
+++ b/Data/Output1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Ray\Ray PC Home\Raymond\Raymond Loh Wee Ping Resume\Race Academy\2021\Course Notes\RPA Projects\RPAC01_TrackingOfTenders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913B262F-5476-4C79-94B7-6CF865E7FA22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA2055-4AE9-4CE9-A9A7-A18DB679AC8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2060" yWindow="2435" windowWidth="16540" windowHeight="7765" xr2:uid="{7E431636-0F77-4C15-8CB0-B277ADDE7420}"/>
   </bookViews>

--- a/Data/Output1.xlsx
+++ b/Data/Output1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Ray\Ray PC Home\Raymond\Raymond Loh Wee Ping Resume\Race Academy\2021\Course Notes\RPA Projects\RPAC01_TrackingOfTenders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CA2055-4AE9-4CE9-A9A7-A18DB679AC8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D963E3-81FD-4453-AEE7-E71529763F9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="2435" windowWidth="16540" windowHeight="7765" xr2:uid="{7E431636-0F77-4C15-8CB0-B277ADDE7420}"/>
+    <workbookView xWindow="200" yWindow="0" windowWidth="12140" windowHeight="7765" xr2:uid="{7E431636-0F77-4C15-8CB0-B277ADDE7420}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Description</t>
   </si>
@@ -37,19 +37,26 @@
   </si>
   <si>
     <t>Procurement Category</t>
-  </si>
-  <si>
-    <t>INVITATION TO QUOTE FOR BOOK VOUCHERS</t>
   </si>
   <si>
     <t>19 May 2021
 01:00PM</t>
   </si>
   <si>
-    <t>Ministry of Education</t>
-  </si>
-  <si>
-    <t>Administration &amp; Training ⇒ Gifts &amp; Souvenirs</t>
+    <t>Supply of Instructor for Basketball Girls CCA Training Programme</t>
+  </si>
+  <si>
+    <t>Ministry of Education - Schools</t>
+  </si>
+  <si>
+    <t>Services ⇒ Data Entry, Supply of Manpower Services</t>
+  </si>
+  <si>
+    <t>Provision of Coaching Services for Basketball (Girls) CCA</t>
+  </si>
+  <si>
+    <t>12 May 2021
+01:00PM</t>
   </si>
 </sst>
 </file>
@@ -405,7 +412,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBB3919-6545-4F31-BC3A-96EF5A48FEAF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -427,15 +434,29 @@
     </row>
     <row r="2" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Data/Output1.xlsx
+++ b/Data/Output1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Ray\Ray PC Home\Raymond\Raymond Loh Wee Ping Resume\Race Academy\2021\Course Notes\RPA Projects\RPAC01_TrackingOfTenders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D963E3-81FD-4453-AEE7-E71529763F9F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9770FAE1-C7A9-448B-AD7F-B30C867D661D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="0" windowWidth="12140" windowHeight="7765" xr2:uid="{7E431636-0F77-4C15-8CB0-B277ADDE7420}"/>
+    <workbookView xWindow="1075" yWindow="2795" windowWidth="17055" windowHeight="5235" xr2:uid="{7E431636-0F77-4C15-8CB0-B277ADDE7420}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
